--- a/KhushiCholkar_VisualSearch MAIN OG.xlsx
+++ b/KhushiCholkar_VisualSearch MAIN OG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khushi Cholkar\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khushi Cholkar\OneDrive\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3015,11 +3015,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="568298144"/>
-        <c:axId val="568294336"/>
+        <c:axId val="-505037056"/>
+        <c:axId val="-505027808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="568298144"/>
+        <c:axId val="-505037056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3062,7 +3062,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568294336"/>
+        <c:crossAx val="-505027808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3070,7 +3070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="568294336"/>
+        <c:axId val="-505027808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,7 +3121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568298144"/>
+        <c:crossAx val="-505037056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3210,7 +3210,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3295,11 +3294,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="568306304"/>
-        <c:axId val="568299776"/>
+        <c:axId val="-505039776"/>
+        <c:axId val="-505031072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="568306304"/>
+        <c:axId val="-505039776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3342,7 +3341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568299776"/>
+        <c:crossAx val="-505031072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3350,7 +3349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="568299776"/>
+        <c:axId val="-505031072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3401,7 +3400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568306304"/>
+        <c:crossAx val="-505039776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3664,11 +3663,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="568303584"/>
-        <c:axId val="568306848"/>
+        <c:axId val="-505039232"/>
+        <c:axId val="-505029440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="568303584"/>
+        <c:axId val="-505039232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3711,7 +3710,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568306848"/>
+        <c:crossAx val="-505029440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3719,7 +3718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="568306848"/>
+        <c:axId val="-505029440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3770,7 +3769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568303584"/>
+        <c:crossAx val="-505039232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4243,11 +4242,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="568307392"/>
-        <c:axId val="568296512"/>
+        <c:axId val="-505038688"/>
+        <c:axId val="-505036512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="568307392"/>
+        <c:axId val="-505038688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4290,7 +4289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568296512"/>
+        <c:crossAx val="-505036512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4298,7 +4297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="568296512"/>
+        <c:axId val="-505036512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4349,7 +4348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568307392"/>
+        <c:crossAx val="-505038688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4571,11 +4570,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="568307936"/>
-        <c:axId val="568298688"/>
+        <c:axId val="-660603520"/>
+        <c:axId val="-660602432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="568307936"/>
+        <c:axId val="-660603520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4618,7 +4617,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568298688"/>
+        <c:crossAx val="-660602432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4626,7 +4625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="568298688"/>
+        <c:axId val="-660602432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4677,7 +4676,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568307936"/>
+        <c:crossAx val="-660603520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4916,8 +4915,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="568297056"/>
-        <c:axId val="568297600"/>
+        <c:axId val="-660610592"/>
+        <c:axId val="-660600800"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -5296,7 +5295,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="568297056"/>
+        <c:axId val="-660610592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5355,7 +5354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568297600"/>
+        <c:crossAx val="-660600800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5363,7 +5362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="568297600"/>
+        <c:axId val="-660600800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5422,7 +5421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568297056"/>
+        <c:crossAx val="-660610592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9189,8 +9188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA8" zoomScale="98" workbookViewId="0">
-      <selection activeCell="AN30" sqref="AN30"/>
+    <sheetView tabSelected="1" topLeftCell="Y18" zoomScale="98" workbookViewId="0">
+      <selection activeCell="AL25" sqref="AL25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
